--- a/Ligas/Liga_uruguay_2025.xlsx
+++ b/Ligas/Liga_uruguay_2025.xlsx
@@ -1,50 +1,174 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\Desktop\ligas_datas\rockongo_web\Ligas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB21AFA7-90EC-4E3E-85A7-A5242885F642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Partidos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Visita</t>
+  </si>
+  <si>
+    <t>Goles Local</t>
+  </si>
+  <si>
+    <t>Goles Visita</t>
+  </si>
+  <si>
+    <t>Fixture ID</t>
+  </si>
+  <si>
+    <t>Corners Local</t>
+  </si>
+  <si>
+    <t>Corners Visita</t>
+  </si>
+  <si>
+    <t>Amarillas Local</t>
+  </si>
+  <si>
+    <t>Amarillas Visita</t>
+  </si>
+  <si>
+    <t>Rojas Local</t>
+  </si>
+  <si>
+    <t>Rojas Visita</t>
+  </si>
+  <si>
+    <t>Goles 1T Local</t>
+  </si>
+  <si>
+    <t>Goles 1T Visita</t>
+  </si>
+  <si>
+    <t>Goles 2T Local</t>
+  </si>
+  <si>
+    <t>Goles 2T Visita</t>
+  </si>
+  <si>
+    <t>Posesión Local (%)</t>
+  </si>
+  <si>
+    <t>Posesión Visita (%)</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>2025-08-01</t>
+  </si>
+  <si>
+    <t>Penarol</t>
+  </si>
+  <si>
+    <t>Progreso</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>2025-08-02</t>
+  </si>
+  <si>
+    <t>Juventud</t>
+  </si>
+  <si>
+    <t>Cerro Largo</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>CA River Plate</t>
+  </si>
+  <si>
+    <t>Cerro</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Club Nacional</t>
+  </si>
+  <si>
+    <t>Atletico Torque</t>
+  </si>
+  <si>
+    <t>Boston River</t>
+  </si>
+  <si>
+    <t>Defensor Sporting</t>
+  </si>
+  <si>
+    <t>2025-08-03</t>
+  </si>
+  <si>
+    <t>Racing Montevideo</t>
+  </si>
+  <si>
+    <t>Wanderers</t>
+  </si>
+  <si>
+    <t>Liverpool Montevideo</t>
+  </si>
+  <si>
+    <t>Danubio</t>
+  </si>
+  <si>
+    <t>Plaza Colonia</t>
+  </si>
+  <si>
+    <t>Miramar</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004F81BD"/>
-        <bgColor rgb="004F81BD"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -56,99 +180,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -436,184 +504,549 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="16" customWidth="1" min="8" max="8"/>
-    <col width="17" customWidth="1" min="9" max="9"/>
-    <col width="18" customWidth="1" min="10" max="10"/>
-    <col width="13" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="16" customWidth="1" min="13" max="13"/>
-    <col width="17" customWidth="1" min="14" max="14"/>
-    <col width="16" customWidth="1" min="15" max="15"/>
-    <col width="17" customWidth="1" min="16" max="16"/>
-    <col width="20" customWidth="1" min="17" max="17"/>
-    <col width="21" customWidth="1" min="18" max="18"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Fecha</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Local</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Visita</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Goles Local</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Goles Visita</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Fixture ID</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Corners Local</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Corners Visita</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Amarillas Local</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>Amarillas Visita</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>Rojas Local</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>Rojas Visita</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>Goles 1T Local</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>Goles 1T Visita</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="inlineStr">
-        <is>
-          <t>Goles 2T Local</t>
-        </is>
-      </c>
-      <c r="P1" s="2" t="inlineStr">
-        <is>
-          <t>Goles 2T Visita</t>
-        </is>
-      </c>
-      <c r="Q1" s="2" t="inlineStr">
-        <is>
-          <t>Posesión Local (%)</t>
-        </is>
-      </c>
-      <c r="R1" s="2" t="inlineStr">
-        <is>
-          <t>Posesión Visita (%)</t>
-        </is>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>2025-08-01</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>Penarol</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Progreso</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="n">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2">
         <v>1412416</v>
       </c>
-      <c r="G2" s="3" t="inlineStr"/>
-      <c r="H2" s="3" t="inlineStr"/>
-      <c r="I2" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J2" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3" t="n">
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>1</v>
       </c>
-      <c r="O2" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3" t="inlineStr"/>
-      <c r="R2" s="3" t="inlineStr"/>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>68</v>
+      </c>
+      <c r="R2">
+        <v>32</v>
+      </c>
+      <c r="S2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1412414</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>60</v>
+      </c>
+      <c r="R3">
+        <v>40</v>
+      </c>
+      <c r="S3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1412415</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>52</v>
+      </c>
+      <c r="R4">
+        <v>48</v>
+      </c>
+      <c r="S4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1412417</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>45</v>
+      </c>
+      <c r="R5">
+        <v>55</v>
+      </c>
+      <c r="S5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1412419</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>51</v>
+      </c>
+      <c r="R6">
+        <v>49</v>
+      </c>
+      <c r="S6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1412412</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>51</v>
+      </c>
+      <c r="R7">
+        <v>49</v>
+      </c>
+      <c r="S7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1412413</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>58</v>
+      </c>
+      <c r="R8">
+        <v>42</v>
+      </c>
+      <c r="S8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1412418</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>58</v>
+      </c>
+      <c r="R9">
+        <v>42</v>
+      </c>
+      <c r="S9" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
